--- a/Reports/MarketBeatRank/TanzyToInvest/SNAP.xlsx
+++ b/Reports/MarketBeatRank/TanzyToInvest/SNAP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="47">
   <si>
     <t>Jun_10</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -209,14 +215,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -228,6 +242,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -238,7 +258,13 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -252,6 +278,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -263,6 +295,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -272,6 +310,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -283,6 +327,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -296,6 +346,12 @@
       <c r="C8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -305,6 +361,12 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -316,6 +378,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -329,6 +397,12 @@
       <c r="C11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -340,6 +414,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -349,6 +429,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -359,7 +445,13 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -373,6 +465,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -384,6 +482,12 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -393,6 +497,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -404,6 +514,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -415,6 +531,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -426,6 +548,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -437,6 +565,12 @@
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -450,6 +584,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -461,6 +601,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -472,6 +618,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -481,6 +633,12 @@
         <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -494,6 +652,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -503,6 +667,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>42</v>
       </c>
     </row>
